--- a/medicine/Psychotrope/Privatbrauerei_Herrenhausen/Privatbrauerei_Herrenhausen.xlsx
+++ b/medicine/Psychotrope/Privatbrauerei_Herrenhausen/Privatbrauerei_Herrenhausen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Privatbrauerei Herrenhausen est une brasserie à Hanovre, dans le quartier de Herrenhausen.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie de la société mère Wölffer &amp; Wedekind Herrenhausen est fondée en 1868. En 1880, elle est rebaptisée Vereinsbrauerei Herrenhausen. Quatre ans plus tard, la première pils est brassée à Herrenhausen. En 1889, les actions de la société sont négociées pour la première fois à la Bourse de Hanovre.
 Trois ans plus tard, la Hannoversche Actien-Brauerei est fondée en 1871 en tant que brasserie Wölffer &amp; Wedekind qui fusionne en 1906 avec la Vereinsbrauerei. En 1913, la brasserie Herrenhäuser gagne un procès contre la ville de Pilsen, qui se plaignit du nom "Herrenhäuser Pilsener".
@@ -549,7 +563,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Premium Pilsener (bouteille de 33 cl et de 50 cl, canette de 50 cl, tonneau de 30 l et de 50 l)
 Alster (bouteille de 33 cl et de 50 cl)
@@ -587,7 +603,9 @@
           <t>Sponsoring</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est le sponsor principal du EC Hannover Indians et soutient, entre autres, les clubs SV Odin Hanovre et SV 1908 Ricklingen (rugby) et les Panthères de Bissendorf (inline skater hockey). En outre, elle est présente à de nombreux événements majeurs, tels que le Schützenfest de Hanovre, la Frühlings- et l'Oktoberfest de Hanovre et le Maschseefest.
 </t>
